--- a/Study 2/results/negrecip_sem_results.xlsx
+++ b/Study 2/results/negrecip_sem_results.xlsx
@@ -467,22 +467,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.281124466941543</v>
+        <v>0.281124460000912</v>
       </c>
       <c r="C2" t="n">
-        <v>0.113892032374928</v>
+        <v>0.113892031655732</v>
       </c>
       <c r="D2" t="n">
-        <v>2.46834182408909</v>
+        <v>2.46834177873553</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0135740628442125</v>
+        <v>0.0135740645642424</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0579001853606149</v>
+        <v>0.0579001798295826</v>
       </c>
       <c r="G2" t="n">
-        <v>0.504348748522471</v>
+        <v>0.504348740172242</v>
       </c>
     </row>
     <row r="3">
@@ -490,22 +490,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0652253933659097</v>
+        <v>0.0652253965884661</v>
       </c>
       <c r="C3" t="n">
-        <v>0.118425447577883</v>
+        <v>0.118425447515935</v>
       </c>
       <c r="D3" t="n">
-        <v>0.550771769918911</v>
+        <v>0.550771797418704</v>
       </c>
       <c r="E3" t="n">
-        <v>0.581790138457954</v>
+        <v>0.581790119604194</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.166884218739777</v>
+        <v>-0.166884215395806</v>
       </c>
       <c r="G3" t="n">
-        <v>0.297335005471596</v>
+        <v>0.297335008572738</v>
       </c>
     </row>
     <row r="4">
@@ -513,22 +513,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0327895888341064</v>
+        <v>-0.0327895832937416</v>
       </c>
       <c r="C4" t="n">
-        <v>0.118614349705493</v>
+        <v>0.118614349880951</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.276438634242144</v>
+        <v>-0.276438587124167</v>
       </c>
       <c r="E4" t="n">
-        <v>0.782211186500984</v>
+        <v>0.782211222686325</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.265269442306511</v>
+        <v>-0.265269437110038</v>
       </c>
       <c r="G4" t="n">
-        <v>0.199690264638298</v>
+        <v>0.199690270522555</v>
       </c>
     </row>
     <row r="5">
@@ -536,22 +536,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0645256222374705</v>
+        <v>0.0645256254254537</v>
       </c>
       <c r="C5" t="n">
-        <v>0.11715491926351</v>
+        <v>0.117154919202227</v>
       </c>
       <c r="D5" t="n">
-        <v>0.550771769918911</v>
+        <v>0.550771797418704</v>
       </c>
       <c r="E5" t="n">
-        <v>0.581790138457954</v>
+        <v>0.581790119604194</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.165093800130707</v>
+        <v>-0.165093796822612</v>
       </c>
       <c r="G5" t="n">
-        <v>0.294145044605648</v>
+        <v>0.294145047673519</v>
       </c>
     </row>
     <row r="6">
@@ -559,22 +559,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0331376379283948</v>
+        <v>-0.0331376323292211</v>
       </c>
       <c r="C6" t="n">
-        <v>0.119873396203254</v>
+        <v>0.119873396380574</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.276438634242144</v>
+        <v>-0.276438587124167</v>
       </c>
       <c r="E6" t="n">
-        <v>0.782211186500984</v>
+        <v>0.782211222686325</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.268085177191273</v>
+        <v>-0.268085171939641</v>
       </c>
       <c r="G6" t="n">
-        <v>0.201809901334483</v>
+        <v>0.201809907281198</v>
       </c>
     </row>
     <row r="7">
@@ -585,19 +585,19 @@
         <v>0.246742504273084</v>
       </c>
       <c r="C7" t="n">
-        <v>0.116326958906521</v>
+        <v>0.116326959239516</v>
       </c>
       <c r="D7" t="n">
-        <v>2.12111196400625</v>
+        <v>2.1211119579344</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0339123813714712</v>
+        <v>0.0339123818823177</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0187458543852325</v>
+        <v>0.0187458537325743</v>
       </c>
       <c r="G7" t="n">
-        <v>0.474739154160935</v>
+        <v>0.474739154813593</v>
       </c>
     </row>
     <row r="8">
@@ -608,19 +608,19 @@
         <v>-0.309954549703476</v>
       </c>
       <c r="C8" t="n">
-        <v>0.119026223753835</v>
+        <v>0.119026224332885</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.60408622510374</v>
+        <v>-2.60408621243512</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00921195780632988</v>
+        <v>0.00921195814684506</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.543241661476798</v>
+        <v>-0.543241662611717</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0766674379301547</v>
+        <v>-0.076667436795236</v>
       </c>
     </row>
     <row r="9">
@@ -628,22 +628,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.928529374046929</v>
+        <v>0.928529382011664</v>
       </c>
       <c r="C9" t="n">
-        <v>0.160482537555844</v>
+        <v>0.16048253886031</v>
       </c>
       <c r="D9" t="n">
-        <v>5.78585924791864</v>
+        <v>5.78585925051878</v>
       </c>
       <c r="E9" t="n">
         <v>0.00000000721426030025896</v>
       </c>
       <c r="F9" t="n">
-        <v>0.613989380289878</v>
+        <v>0.613989385697907</v>
       </c>
       <c r="G9" t="n">
-        <v>1.24306936780398</v>
+        <v>1.24306937832542</v>
       </c>
     </row>
     <row r="10">
@@ -654,19 +654,19 @@
         <v>0.55669705397656</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0392867190553081</v>
+        <v>0.0392867189402355</v>
       </c>
       <c r="D10" t="n">
-        <v>14.1701080508362</v>
+        <v>14.1701080923411</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.479696499557413</v>
+        <v>0.479696499782951</v>
       </c>
       <c r="G10" t="n">
-        <v>0.633697608395707</v>
+        <v>0.633697608170169</v>
       </c>
     </row>
     <row r="11">
@@ -674,22 +674,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0976632601658654</v>
+        <v>0.0976632577546749</v>
       </c>
       <c r="C11" t="n">
-        <v>0.039566343368019</v>
+        <v>0.0395663431181686</v>
       </c>
       <c r="D11" t="n">
-        <v>2.46834182419812</v>
+        <v>2.46834177884457</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0135740628400773</v>
+        <v>0.0135740645601072</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0201146521646029</v>
+        <v>0.0201146502431101</v>
       </c>
       <c r="G11" t="n">
-        <v>0.175211868167128</v>
+        <v>0.17521186526624</v>
       </c>
     </row>
     <row r="12">
@@ -697,22 +697,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0980149822000161</v>
+        <v>0.0980149798822077</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0394777919429315</v>
+        <v>0.0394777916771655</v>
       </c>
       <c r="D12" t="n">
-        <v>2.48278785048832</v>
+        <v>2.48278780849084</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0130358698215756</v>
+        <v>0.0130358713583727</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0206399318027048</v>
+        <v>0.0206399300057883</v>
       </c>
       <c r="G12" t="n">
-        <v>0.175390032597327</v>
+        <v>0.175390029758627</v>
       </c>
     </row>
     <row r="13">
@@ -720,22 +720,22 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0977651740701713</v>
+        <v>0.0977651716661545</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0396473384522214</v>
+        <v>0.039647338194624</v>
       </c>
       <c r="D13" t="n">
-        <v>2.46586978815708</v>
+        <v>2.46586974354336</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0136681011085908</v>
+        <v>0.0136681028109129</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0200578186209475</v>
+        <v>0.0200578167218121</v>
       </c>
       <c r="G13" t="n">
-        <v>0.175472529519395</v>
+        <v>0.175472526610497</v>
       </c>
     </row>
     <row r="14">
@@ -743,22 +743,22 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0981194751957021</v>
+        <v>0.098119472885699</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0395833219260807</v>
+        <v>0.0395833216589309</v>
       </c>
       <c r="D14" t="n">
-        <v>2.47880850876877</v>
+        <v>2.47880846714038</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0131822056143918</v>
+        <v>0.0131822071527954</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0205375898321294</v>
+        <v>0.0205375880457302</v>
       </c>
       <c r="G14" t="n">
-        <v>0.175701360559275</v>
+        <v>0.175701357725668</v>
       </c>
     </row>
     <row r="15">
@@ -766,22 +766,22 @@
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>-5.70016865125227</v>
+        <v>-5.7001687919827</v>
       </c>
       <c r="C15" t="n">
-        <v>2.34408524187461</v>
+        <v>2.34408534134715</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.4317241324781</v>
+        <v>-2.43172408932296</v>
       </c>
       <c r="E15" t="n">
-        <v>0.015027147736373</v>
+        <v>0.0150271495266479</v>
       </c>
       <c r="F15" t="n">
-        <v>-10.2944913020184</v>
+        <v>-10.2944916377114</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.10584600048617</v>
+        <v>-1.10584594625401</v>
       </c>
     </row>
     <row r="16">
@@ -789,22 +789,22 @@
         <v>21</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0313879843090757</v>
+        <v>0.0313879930962326</v>
       </c>
       <c r="C16" t="n">
-        <v>0.233718456529149</v>
+        <v>0.233718456691902</v>
       </c>
       <c r="D16" t="n">
-        <v>0.134298269701097</v>
+        <v>0.134298307204765</v>
       </c>
       <c r="E16" t="n">
-        <v>0.893166721427223</v>
+        <v>0.893166691772264</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.426691773010346</v>
+        <v>-0.426691764542181</v>
       </c>
       <c r="G16" t="n">
-        <v>0.489467741628498</v>
+        <v>0.489467750734646</v>
       </c>
     </row>
     <row r="17">
@@ -812,22 +812,22 @@
         <v>22</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0156939921545378</v>
+        <v>0.0156939965481163</v>
       </c>
       <c r="C17" t="n">
-        <v>0.116859228264574</v>
+        <v>0.116859228345951</v>
       </c>
       <c r="D17" t="n">
-        <v>0.134298269701097</v>
+        <v>0.134298307204765</v>
       </c>
       <c r="E17" t="n">
-        <v>0.893166721427223</v>
+        <v>0.893166691772264</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.213345886505173</v>
+        <v>-0.21334588227109</v>
       </c>
       <c r="G17" t="n">
-        <v>0.244733870814249</v>
+        <v>0.244733875367323</v>
       </c>
     </row>
     <row r="18">
@@ -835,22 +835,22 @@
         <v>23</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0819692680113275</v>
+        <v>0.0819692612065586</v>
       </c>
       <c r="C18" t="n">
-        <v>0.12596003639159</v>
+        <v>0.125960036614355</v>
       </c>
       <c r="D18" t="n">
-        <v>0.650756147422014</v>
+        <v>0.650756092247887</v>
       </c>
       <c r="E18" t="n">
-        <v>0.515203912234819</v>
+        <v>0.515203947856732</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.164907866807543</v>
+        <v>-0.164907874048924</v>
       </c>
       <c r="G18" t="n">
-        <v>0.328846402830198</v>
+        <v>0.328846396462041</v>
       </c>
     </row>
     <row r="19">
@@ -858,22 +858,22 @@
         <v>24</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0313879843090757</v>
+        <v>0.0313879930962326</v>
       </c>
       <c r="C19" t="n">
-        <v>0.233718456529149</v>
+        <v>0.233718456691902</v>
       </c>
       <c r="D19" t="n">
-        <v>0.134298269701097</v>
+        <v>0.134298307204765</v>
       </c>
       <c r="E19" t="n">
-        <v>0.893166721427223</v>
+        <v>0.893166691772264</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.426691773010346</v>
+        <v>-0.426691764542181</v>
       </c>
       <c r="G19" t="n">
-        <v>0.489467741628498</v>
+        <v>0.489467750734646</v>
       </c>
     </row>
     <row r="20">
@@ -881,22 +881,22 @@
         <v>25</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0976632601658654</v>
+        <v>0.0976632577546749</v>
       </c>
       <c r="C20" t="n">
-        <v>0.039566343368019</v>
+        <v>0.0395663431181686</v>
       </c>
       <c r="D20" t="n">
-        <v>2.46834182419812</v>
+        <v>2.46834177884457</v>
       </c>
       <c r="E20" t="n">
-        <v>0.00678703142003868</v>
+        <v>0.00678703228005358</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0201146521646029</v>
+        <v>0.0201146502431101</v>
       </c>
       <c r="G20" t="n">
-        <v>0.175211868167128</v>
+        <v>0.17521186526624</v>
       </c>
     </row>
     <row r="21">
@@ -904,22 +904,22 @@
         <v>26</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0313879843090757</v>
+        <v>0.0313879930962326</v>
       </c>
       <c r="C21" t="n">
-        <v>0.233718456529149</v>
+        <v>0.233718456691902</v>
       </c>
       <c r="D21" t="n">
-        <v>0.134298269701097</v>
+        <v>0.134298307204765</v>
       </c>
       <c r="E21" t="n">
-        <v>0.446583360713611</v>
+        <v>0.446583345886132</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.426691773010346</v>
+        <v>-0.426691764542181</v>
       </c>
       <c r="G21" t="n">
-        <v>0.489467741628498</v>
+        <v>0.489467750734646</v>
       </c>
     </row>
     <row r="22">
@@ -927,22 +927,22 @@
         <v>27</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0662752758567897</v>
+        <v>0.0662752646584423</v>
       </c>
       <c r="C22" t="n">
-        <v>0.239746792406508</v>
+        <v>0.239746792761148</v>
       </c>
       <c r="D22" t="n">
-        <v>0.276438634242144</v>
+        <v>0.276438587124167</v>
       </c>
       <c r="E22" t="n">
-        <v>0.391105593250492</v>
+        <v>0.391105611343163</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.403619802668966</v>
+        <v>-0.403619814562397</v>
       </c>
       <c r="G22" t="n">
-        <v>0.536170354382545</v>
+        <v>0.536170343879281</v>
       </c>
     </row>
     <row r="23">
@@ -950,16 +950,16 @@
         <v>28</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0981194751957021</v>
+        <v>0.098119472885699</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0395833219260807</v>
+        <v>0.0395833216589309</v>
       </c>
       <c r="D23" t="n">
-        <v>2.47880850876877</v>
+        <v>2.47880846714038</v>
       </c>
       <c r="E23" t="n">
-        <v>0.993408897192804</v>
+        <v>0.993408896423602</v>
       </c>
       <c r="F23"/>
       <c r="G23"/>
@@ -969,16 +969,16 @@
         <v>29</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0977651740701713</v>
+        <v>0.0977651716661545</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0396473384522214</v>
+        <v>0.039647338194624</v>
       </c>
       <c r="D24" t="n">
-        <v>2.46586978815708</v>
+        <v>2.46586974354336</v>
       </c>
       <c r="E24" t="n">
-        <v>0.993165949445705</v>
+        <v>0.993165948594544</v>
       </c>
       <c r="F24"/>
       <c r="G24"/>
@@ -988,16 +988,16 @@
         <v>30</v>
       </c>
       <c r="B25" t="n">
-        <v>5.70016865125227</v>
+        <v>5.7001687919827</v>
       </c>
       <c r="C25" t="n">
-        <v>2.34408524187461</v>
+        <v>2.34408534134715</v>
       </c>
       <c r="D25" t="n">
-        <v>2.4317241324781</v>
+        <v>2.43172408932296</v>
       </c>
       <c r="E25" t="n">
-        <v>0.992486426131813</v>
+        <v>0.992486425236676</v>
       </c>
       <c r="F25"/>
       <c r="G25"/>
@@ -1007,16 +1007,16 @@
         <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>5.70016865125227</v>
+        <v>5.7001687919827</v>
       </c>
       <c r="C26" t="n">
-        <v>2.34408524187461</v>
+        <v>2.34408534134715</v>
       </c>
       <c r="D26" t="n">
-        <v>2.4317241324781</v>
+        <v>2.43172408932296</v>
       </c>
       <c r="E26" t="n">
-        <v>0.00751357386818648</v>
+        <v>0.00751357476332389</v>
       </c>
       <c r="F26"/>
       <c r="G26"/>
